--- a/biology/Zoologie/Cybaeus_iharai/Cybaeus_iharai.xlsx
+++ b/biology/Zoologie/Cybaeus_iharai/Cybaeus_iharai.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cybaeus iharai est une espèce d'araignées aranéomorphes de la famille des Cybaeidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cybaeus iharai est une espèce d'araignées aranéomorphes de la famille des Cybaeidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la préfecture de Nagano au Japon[1],[2]. Elle se rencontre vers Shimosuwa, Tateshina, Fujimi et Sakuho.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la préfecture de Nagano au Japon,. Elle se rencontre vers Shimosuwa, Tateshina, Fujimi et Sakuho.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 2,11 mm de long sur 1,52 mm et l'abdomen 2,48 mm de long sur 2,10 mm et la carapace de la femelle paratype mesure 1,97 mm de long sur 1,29 mm et l'abdomen 2,20 mm de long sur 1,65 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 2,11 mm de long sur 1,52 mm et l'abdomen 2,48 mm de long sur 2,10 mm et la carapace de la femelle paratype mesure 1,97 mm de long sur 1,29 mm et l'abdomen 2,20 mm de long sur 1,65 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Yoh Ihara[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Yoh Ihara.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Sugawara, Koike &amp; Nakano, 2022 : « A new species of Cybaeus with short genitalia from central Honshu, Japan (Araneae: Cybaeidae). » Acta Arachnologica, vol. 71, no 1, p. 27-31 (texte intégral).</t>
         </is>
